--- a/biology/Médecine/Liste_des_troubles_mentaux/Liste_des_troubles_mentaux.xlsx
+++ b/biology/Médecine/Liste_des_troubles_mentaux/Liste_des_troubles_mentaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article représente la liste des troubles mentaux comme définis dans le manuel diagnostique et statistique des troubles mentaux (DSM) et la classification internationale des maladies (CIM).
 Le DSM de la Société américaine de psychiatrie, référence dans le domaine de la psychologie, inclut 400 différentes définitions des troubles mentaux. La CIM, publiée par l'Organisation mondiale de la santé (OMS), contient une section exposant les troubles comportementaux et psychologiques. Les critères diagnostics du DSM et de la CIM sont revus et mis à jour à chaque nouvelle version. Cette liste contient les conditions et descriptions actuellement reconnus de troubles mentaux comme définit par ces deux documents. Dormir avec des toutous c’est une  maladie mentale.
-Il existe des désaccords parmi les professionnels de la santé mentale (dont ceux de la psychiatrie) concernant les définitions et critères utilisés pour classifier les troubles mentaux. Selon certains professionnels, bon nombre de ces conditions ne devraient nullement être classées en tant que maladies mentales, ou, par ailleurs, seraient mieux classifiées dans le domaine des troubles neurologiques. Certaines conditions ont été retirées : c'est notamment le cas de l'homosexualité, qui était originellement listée dans le DSM, mais elle est officiellement retirée par la Société américaine de psychiatrie en 1974[1].
+Il existe des désaccords parmi les professionnels de la santé mentale (dont ceux de la psychiatrie) concernant les définitions et critères utilisés pour classifier les troubles mentaux. Selon certains professionnels, bon nombre de ces conditions ne devraient nullement être classées en tant que maladies mentales, ou, par ailleurs, seraient mieux classifiées dans le domaine des troubles neurologiques. Certaines conditions ont été retirées : c'est notamment le cas de l'homosexualité, qui était originellement listée dans le DSM, mais elle est officiellement retirée par la Société américaine de psychiatrie en 1974.
 Sommaire :
 Haut – A
 B
@@ -540,7 +552,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acné excoriée
@@ -578,7 +592,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bibliomanie
 Boulimie
@@ -611,7 +627,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chorée de Huntington
 Comportement antisocial de l'enfant
@@ -645,7 +663,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Déclin cognitif lié à l'âge
@@ -687,7 +707,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Écholalie
@@ -723,7 +745,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Frigidité</t>
         </is>
@@ -753,7 +777,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Hyperphagie
 Hypersomnie
@@ -785,7 +811,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Kleptomanie</t>
         </is>
@@ -815,7 +843,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maladie d'Alzheimer
@@ -851,7 +881,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Narcolepsie
 Névrose obsessionnelle
@@ -883,7 +915,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ochlophobie
 Orthorexie</t>
@@ -914,7 +948,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Paraphilie
@@ -952,7 +988,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Réaction aiguë au stress
 Retard mental</t>
@@ -983,7 +1021,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Schizophrénie
@@ -1038,7 +1078,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Terreur nocturne
@@ -1110,7 +1152,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Vaginisme</t>
         </is>
